--- a/InputFiles/TC02_Canine_MFST_SamplePatho-TCellLymphoma.xlsx
+++ b/InputFiles/TC02_Canine_MFST_SamplePatho-TCellLymphoma.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\radhakrishnang2\Desktop\Commons_Automation\InputFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\radhakrishnang2\Desktop\April\Commons_Automation\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81645093-5AA5-4D5E-9B4A-D819EBC096D0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E65490-D997-4CA6-83E5-9F726CF54BF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15510" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
   <sheets>
     <sheet name="startup" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
   <si>
     <t>WebExcel</t>
   </si>
@@ -57,13 +57,90 @@
     <t>FilesTab</t>
   </si>
   <si>
+    <t>cartQuery</t>
+  </si>
+  <si>
+    <t>TC02_Canine_MFST_SamplePatho-TCellLymphoma_Neo4jData.xlsx</t>
+  </si>
+  <si>
+    <t>TC02_Canine_MFST_SamplePatho-TCellLymphoma_WebData.xlsx</t>
+  </si>
+  <si>
+    <t>MATCH (s:study)&lt;-[*]-(c:case)&lt;--(demo:demographic)
+MATCH (c)&lt;--(diag:diagnosis)
+WHERE diag.disease_term IN ['T Cell Lymphoma']
+MATCH (c)&lt;--(diag:diagnosis)
+OPTIONAL MATCH (samp:sample)--&gt;(c)
+OPTIONAL MATCH (co:cohort)&lt;-[*]-(c)
+WITH DISTINCT c, s, demo, diag, co, demo.patient_age_at_enrollment AS age, demo.weight as weight
+RETURN  
+       coalesce(c.case_id, '') AS `Case ID`,
+       coalesce(s.clinical_study_designation, '') AS `Study Code`,
+       coalesce(s.clinical_study_type, '') AS  `Study Type`,
+       coalesce(demo.breed, '') AS Breed ,
+       coalesce(diag.disease_term, '') AS Diagnosis ,
+       coalesce(diag.stage_of_disease, '') AS `Stage of Disease`,
+       CASE age % 1 WHEN 0 THEN apoc.convert.toInteger(age) ELSE age END AS Age,
+       coalesce(demo.sex, '') AS Sex,
+       coalesce(demo.neutered_indicator, '') AS `Neutered Status`,
+       coalesce(CASE weight % 1 WHEN 0 THEN apoc.convert.toInteger(weight) ELSE weight END, '') AS `Weight (kg)`,
+       coalesce(diag.best_response, '') AS `Response to Treatment`,
+       coalesce(co.cohort_description, '') AS `Cohort`
+Order by c.case_id LIMIT 100</t>
+  </si>
+  <si>
+    <t>MATCH (p:program)&lt;--(s:study)&lt;-[*]-(c:case)&lt;--(demo:demographic)
+OPTIONAL MATCH (samp:sample)--&gt;(c)
+OPTIONAL MATCH (diag:diagnosis)--&gt;(c)
+OPTIONAL MATCH (f:file)-[*]-&gt;(c)
+OPTIONAL MATCH (sf:file)--&gt;(s)
+WITH DISTINCT f, sf, samp AS samp, c, demo, diag, s, p
+ WHERE diag.disease_term IN ['T Cell Lymphoma'] 
+RETURN  
+    count(distinct p) AS Programs,
+    count(distinct s) AS Studies,
+    count(distinct c) AS Cases,
+    count(distinct samp) AS Samples,
+    count(distinct f) AS `Case Files`,
+    count(distinct sf) AS `Study Files`</t>
+  </si>
+  <si>
+    <t>StudyFilesTab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  MATCH (f:file)--&gt;(s:study)
+MATCH (s)&lt;--(c:case)&lt;--(demo:demographic), (c)&lt;--(diag:diagnosis)
+WHERE diag.disease_term IN ['T Cell Lymphoma']
+WITH DISTINCT f,  s, c, demo, diag
+WITH
+        f, c, demo, diag, s,
+        ['Bytes', 'KB', 'MB', 'GB', 'TB'] AS units,
+        toInteger(floor(log(f.file_size)/log(1024))) as i,
+        2 as precision
+WITH    
+        f, c, demo, diag, s,
+        f.file_size /(1024^i) AS value, 10^precision AS factor,
+        units[i] as unit
+        WITH    
+        f,  c, demo, diag, s, unit,
+        round(factor * value)/factor AS size
+RETURN DISTINCT
+  coalesce(f.file_name, '') AS `File Name`,
+  coalesce(f.file_type, '') AS `File Type`,
+  coalesce("study", '') AS `Association`,
+  coalesce(f.file_description, '') AS `Description`,
+  coalesce(f.file_format, '') AS  Format,
+  CASE size % 1 WHEN 0 THEN apoc.convert.toInteger(size)+' ' +unit ELSE size+' ' +unit END AS Size,
+  coalesce(s.clinical_study_designation,'') AS `Study Code`</t>
+  </si>
+  <si>
     <t>MATCH (s:study)&lt;-[*]-(c:case)&lt;--(demo:demographic), (samp:sample)--&gt;(c)&lt;--(diag:diagnosis) 
-WHERE demo.breed IN ['Yorkshire Terrier']
+WHERE diag.disease_term IN ['T Cell Lymphoma']
 WITH DISTINCT samp AS samp, c, demo, diag
 RETURN  coalesce(samp.sample_id, '') AS `Sample ID`, 
         coalesce(c.case_id, '') AS `Case ID`, 
-        coalesce(demo.breed,'') AS Breed , 
-        coalesce(diag.disease_term,'') AS Diagnosis , 
+        coalesce(demo.breed,'') AS Breed,
+        coalesce(diag.disease_term,'') AS Diagnosis, 
         coalesce(samp.sample_site, '') AS `Sample Site`,
         coalesce(samp.summarized_sample_type, '') AS `Sample Type`,
         coalesce(samp.specific_sample_pathology, '') AS `Pathology/Morphology`,
@@ -76,28 +153,40 @@
   <si>
     <t>MATCH (f:file)--&gt;(parent)
 WITH DISTINCT f, parent
+MATCH (diag:diagnosis)--&gt;(c)
+OPTIONAL MATCH (f)-[*]-&gt;(samp:sample)
 MATCH (f)-[*]-&gt;(c:case)&lt;--(demo:demographic)
-WHERE demo.breed IN ['Yorkshire Terrier']
-OPTIONAL MATCH (s:study)&lt;-[*]-(c)&lt;--(diag:diagnosis)
-OPTIONAL MATCH (samp:sample)--&gt;(c)
-WITH DISTINCT f, parent, c, demo, diag, s
-RETURN coalesce(f.file_name, '') AS `File Name`, 
-        coalesce(f.file_type, '') AS `File Type`, 
+WHERE diag.disease_term IN ['T Cell Lymphoma']
+OPTIONAL MATCH (s:study)&lt;--(c)&lt;--(diag:diagnosis)&lt;-[*]-(samp)
+WITH
+        f, parent, c, demo, diag, s, samp,
+        ['Bytes', 'KB', 'MB', 'GB', 'TB'] AS units,
+        toInteger(floor(log(f.file_size)/log(1024))) as i,
+        2 as precision
+WITH
+        f, parent, c, demo, diag, s, samp,
+        f.file_size /(1024^i) AS value, 
+        10^precision AS factor,
+        units[i] as unit
+WITH    
+        f, parent, c, demo, diag, s, samp, unit,
+        round(factor * value)/factor AS size
+RETURN 
+        coalesce(f.file_name, '') AS `File Name`,
+       coalesce(f.file_format, '') AS `Format`,
+        coalesce(f.file_type, '') AS `File Type`,
+       CASE size % 1 WHEN 0 THEN apoc.convert.toInteger(size)+' ' +unit ELSE size+' ' +unit END AS Size,
         coalesce(labels(parent)[0], '') AS `Association`,
         coalesce(f.file_description, '') AS `Description`,
-        coalesce(f.file_format, '') AS `File Format`,
-        coalesce(f.file_size, '') AS `Size`,
-        coalesce(c.case_id, '') AS `Case ID`, 
-        coalesce(demo.breed,'') AS Breed , 
-        coalesce(diag.disease_term,'') AS Diagnosis , 
-        coalesce(s.clinical_study_designation,'') AS `Study Code`</t>
-  </si>
-  <si>
-    <t>cartQuery</t>
+        coalesce(samp.sample_id, '') AS `Sample ID`,
+        coalesce(c.case_id, '') AS `Case ID`,
+        coalesce(demo.breed,'') AS Breed ,
+        coalesce(diag.disease_term,'') AS Diagnosis</t>
   </si>
   <si>
     <t xml:space="preserve">MATCH (s:study)&lt;-[*]-(c:case)&lt;--(demo:demographic)
-  WHERE demo.breed IN ['Yorkshire Terrier']
+MATCH (c)&lt;--(diag:diagnosis)
+  WHERE diag.disease_term IN ['T Cell Lymphoma'] 
 MATCH (f:file)-[*]-&gt;(c)
 WITH COLLECT(DISTINCT f.uuid) AS uuids
 MATCH (f:file)
@@ -109,11 +198,11 @@
 OPTIONAL MATCH (c)--&gt;(i:canine_individual)&lt;--(o:case)
 RETURN
   f.file_name AS `File Name`,
+    f.file_format AS `Format`,
   f.file_type AS `File Type`,
+  f.file_size AS `Size`,
   head(labels(parent)) AS `Association`,
   f.file_description AS `Description`,
-  f.file_format AS `Format`,
-  f.file_size AS `Size`,
   samp.sample_id AS `Sample ID`,
   c.case_id as `Case ID`,
   i.canine_individual_id AS `Canine ID`,
@@ -121,47 +210,6 @@
   THEN parent.clinical_study_designation 
   ELSE s.clinical_study_designation END AS `Study Code`
   </t>
-  </si>
-  <si>
-    <t>TC02_Canine_MFST_SamplePatho-TCellLymphoma_Neo4jData.xlsx</t>
-  </si>
-  <si>
-    <t>TC02_Canine_MFST_SamplePatho-TCellLymphoma_WebData.xlsx</t>
-  </si>
-  <si>
-    <t>MATCH (s:study)&lt;-[*]-(c:case)&lt;--(demo:demographic)
-MATCH (samp:sample)--&gt;(c)
-WHERE samp.specific_sample_pathology IN ['T Cell Lymphoma']
-MATCH (c)&lt;--(diag:diagnosis)
-OPTIONAL MATCH (co:cohort)&lt;-[*]-(c)
-WITH DISTINCT c, s, demo, diag, co
-RETURN  coalesce(c.case_id, '') AS `Case ID` ,
-        coalesce(s.clinical_study_designation, '') AS `Study Code` ,
-        coalesce(s.clinical_study_type, '') AS  `Study Type`,
-        coalesce(demo.breed, '') AS Breed ,
-        coalesce(diag.disease_term, '') AS Diagnosis ,
-        coalesce(diag.stage_of_disease, '') AS `Stage of Disease` ,
-        coalesce(demo.patient_age_at_enrollment, '') AS Age ,
-        coalesce(demo.sex, '') AS Sex ,
-        coalesce(demo.neutered_indicator, '') AS `Neutered Status`,
-        coalesce(demo.weight, '') AS `Weight (kg)`,
-        coalesce(diag.best_response, '') AS `Response to Treatment`</t>
-  </si>
-  <si>
-    <t>MATCH (s:study)
-  WITH COLLECT(DISTINCT(s.clinical_study_designation)) AS all_studies
-  MATCH (d:demographic) WITH COLLECT(DISTINCT(d.breed)) AS all_breeds, COLLECT(DISTINCT(d.sex)) AS all_sexes, all_studies
-  MATCH (d:diagnosis)
-  WITH COLLECT(DISTINCT(d.disease_term)) AS all_diseases, all_breeds, all_sexes, all_studies
-  MATCH (p:program)&lt;-[*]-(s:study)&lt;-[*]-(c:case)&lt;--(demo:demographic), (c)&lt;--(diag:diagnosis)
-MATCH (samp:sample)--&gt;(c)
-    WHERE samp.specific_sample_pathology IN ['T Cell Lymphoma']
-  OPTIONAL MATCH (f:file)-[*]-&gt;(c)
-  WITH DISTINCT c AS c, p, s, demo, diag, f, samp
-  RETURN count(DISTINCT(f)) as number_of_files ,
-             count(DISTINCT(samp)) as number_of_sample ,
-             count(DISTINCT(c.case_id)) as number_of_cases ,
-             count(DISTINCT(s.clinical_study_designation)) as number_of_study</t>
   </si>
 </sst>
 </file>
@@ -531,10 +579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C538400-E87C-4027-A918-A51DB80B3430}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -557,7 +605,7 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -566,64 +614,84 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="390" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="390" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="390" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F4" t="s">
-        <v>13</v>
+      <c r="D5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/InputFiles/TC02_Canine_MFST_SamplePatho-TCellLymphoma.xlsx
+++ b/InputFiles/TC02_Canine_MFST_SamplePatho-TCellLymphoma.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\radhakrishnang2\Desktop\April\Commons_Automation\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E65490-D997-4CA6-83E5-9F726CF54BF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B63CC8B-6375-41FB-8BAA-2C2F8A9EAD97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
@@ -66,11 +66,13 @@
     <t>TC02_Canine_MFST_SamplePatho-TCellLymphoma_WebData.xlsx</t>
   </si>
   <si>
+    <t>StudyFilesTab</t>
+  </si>
+  <si>
     <t>MATCH (s:study)&lt;-[*]-(c:case)&lt;--(demo:demographic)
-MATCH (c)&lt;--(diag:diagnosis)
-WHERE diag.disease_term IN ['T Cell Lymphoma']
-MATCH (c)&lt;--(diag:diagnosis)
-OPTIONAL MATCH (samp:sample)--&gt;(c)
+MATCH (c)&lt;--(diag:diagnosis) 
+ MATCH (samp:sample)--&gt;(c)
+ WHERE samp.specific_sample_pathology IN  ['T Cell Lymphoma']
 OPTIONAL MATCH (co:cohort)&lt;-[*]-(c)
 WITH DISTINCT c, s, demo, diag, co, demo.patient_age_at_enrollment AS age, demo.weight as weight
 RETURN  
@@ -89,53 +91,38 @@
 Order by c.case_id LIMIT 100</t>
   </si>
   <si>
-    <t>MATCH (p:program)&lt;--(s:study)&lt;-[*]-(c:case)&lt;--(demo:demographic)
-OPTIONAL MATCH (samp:sample)--&gt;(c)
-OPTIONAL MATCH (diag:diagnosis)--&gt;(c)
-OPTIONAL MATCH (f:file)-[*]-&gt;(c)
-OPTIONAL MATCH (sf:file)--&gt;(s)
-WITH DISTINCT f, sf, samp AS samp, c, demo, diag, s, p
- WHERE diag.disease_term IN ['T Cell Lymphoma'] 
-RETURN  
-    count(distinct p) AS Programs,
-    count(distinct s) AS Studies,
-    count(distinct c) AS Cases,
-    count(distinct samp) AS Samples,
-    count(distinct f) AS `Case Files`,
-    count(distinct sf) AS `Study Files`</t>
-  </si>
-  <si>
-    <t>StudyFilesTab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  MATCH (f:file)--&gt;(s:study)
-MATCH (s)&lt;--(c:case)&lt;--(demo:demographic), (c)&lt;--(diag:diagnosis)
-WHERE diag.disease_term IN ['T Cell Lymphoma']
-WITH DISTINCT f,  s, c, demo, diag
-WITH
-        f, c, demo, diag, s,
-        ['Bytes', 'KB', 'MB', 'GB', 'TB'] AS units,
-        toInteger(floor(log(f.file_size)/log(1024))) as i,
-        2 as precision
-WITH    
-        f, c, demo, diag, s,
-        f.file_size /(1024^i) AS value, 10^precision AS factor,
-        units[i] as unit
-        WITH    
-        f,  c, demo, diag, s, unit,
-        round(factor * value)/factor AS size
-RETURN DISTINCT
-  coalesce(f.file_name, '') AS `File Name`,
-  coalesce(f.file_type, '') AS `File Type`,
-  coalesce("study", '') AS `Association`,
-  coalesce(f.file_description, '') AS `Description`,
-  coalesce(f.file_format, '') AS  Format,
-  CASE size % 1 WHEN 0 THEN apoc.convert.toInteger(size)+' ' +unit ELSE size+' ' +unit END AS Size,
-  coalesce(s.clinical_study_designation,'') AS `Study Code`</t>
-  </si>
-  <si>
-    <t>MATCH (s:study)&lt;-[*]-(c:case)&lt;--(demo:demographic), (samp:sample)--&gt;(c)&lt;--(diag:diagnosis) 
-WHERE diag.disease_term IN ['T Cell Lymphoma']
+    <t xml:space="preserve">MATCH (s:study)&lt;-[*]-(c:case)&lt;--(demo:demographic)
+MATCH (c)&lt;--(diag:diagnosis)
+ MATCH (samp:sample)--&gt;(c)
+ WHERE samp.specific_sample_pathology IN  ['T Cell Lymphoma']
+MATCH (f:file)-[*]-&gt;(c)
+WITH COLLECT(DISTINCT f.uuid) AS uuids
+MATCH (f:file)
+  WHERE f.uuid in uuids
+OPTIONAL MATCH (f)--&gt;(parent)
+OPTIONAL MATCH (f)-[*]-&gt;(samp:sample)
+OPTIONAL MATCH (f:file)-[*]-&gt;(c:case)
+OPTIONAL MATCH (s:study)&lt;-[:member_of]-(c)
+OPTIONAL MATCH (c)--&gt;(i:canine_individual)&lt;--(o:case)
+RETURN
+     coalesce(f.file_name, '') AS `File Name`,
+    coalesce(f.file_format, '') AS `Format`,
+  coalesce(f.file_type, '')AS `File Type`,
+  coalesce(f.file_size, '') AS `Size`,
+  head(labels(parent)) AS `Association`,
+ coalesce(f.file_description,'') AS `Description`,
+coalesce(samp.sample_id, '') AS `Sample ID`,
+  coalesce(c.case_id,'') as `Case ID`,
+  coalesce(i.canine_individual_id,'') AS `Canine ID`,
+  CASE WHEN s.clinical_study_designation IS NULL 
+  THEN parent.clinical_study_designation 
+  ELSE s.clinical_study_designation END AS `Study Code`
+  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+MATCH (s:study)&lt;-[*]-(c:case)&lt;--(demo:demographic), (samp:sample)--&gt;(c)&lt;--(diag:diagnosis) 
+WHERE samp.specific_sample_pathology IN  ['T Cell Lymphoma']
 WITH DISTINCT samp AS samp, c, demo, diag
 RETURN  coalesce(samp.sample_id, '') AS `Sample ID`, 
         coalesce(c.case_id, '') AS `Case ID`, 
@@ -148,7 +135,8 @@
         coalesce(samp.sample_chronology, '') AS `Sample Chronology`,
         coalesce(samp.percentage_tumor, '') AS `Percentage Tumor`,
         coalesce(samp.necropsy_sample, '') AS `Necropsy Sample`,
-        coalesce(samp.sample_preservation, '') AS `Sample Preservation`</t>
+        coalesce(samp.sample_preservation, '') AS `Sample Preservation`
+Order by samp.sample_id LIMIT 100</t>
   </si>
   <si>
     <t>MATCH (f:file)--&gt;(parent)
@@ -156,7 +144,7 @@
 MATCH (diag:diagnosis)--&gt;(c)
 OPTIONAL MATCH (f)-[*]-&gt;(samp:sample)
 MATCH (f)-[*]-&gt;(c:case)&lt;--(demo:demographic)
-WHERE diag.disease_term IN ['T Cell Lymphoma']
+WHERE samp.specific_sample_pathology IN  ['T Cell Lymphoma']
 OPTIONAL MATCH (s:study)&lt;--(c)&lt;--(diag:diagnosis)&lt;-[*]-(samp)
 WITH
         f, parent, c, demo, diag, s, samp,
@@ -184,32 +172,46 @@
         coalesce(diag.disease_term,'') AS Diagnosis</t>
   </si>
   <si>
-    <t xml:space="preserve">MATCH (s:study)&lt;-[*]-(c:case)&lt;--(demo:demographic)
-MATCH (c)&lt;--(diag:diagnosis)
-  WHERE diag.disease_term IN ['T Cell Lymphoma'] 
-MATCH (f:file)-[*]-&gt;(c)
-WITH COLLECT(DISTINCT f.uuid) AS uuids
-MATCH (f:file)
-  WHERE f.uuid in uuids
-OPTIONAL MATCH (f)--&gt;(parent)
-OPTIONAL MATCH (f)-[*]-&gt;(samp:sample)
-OPTIONAL MATCH (f:file)-[*]-&gt;(c:case)
-OPTIONAL MATCH (s:study)&lt;-[:member_of]-(c)
-OPTIONAL MATCH (c)--&gt;(i:canine_individual)&lt;--(o:case)
+    <t>MATCH (p:program)&lt;--(s:study)&lt;-[*]-(c:case)&lt;--(demo:demographic)
+MATCH (f:file)-[*]-&gt;(samp:sample)--&gt;(c)
+MATCH (sf:file)--&gt;(s)
+WITH DISTINCT f, sf, samp AS samp,demo, c, s, p
+WHERE samp.specific_sample_pathology IN  ['T Cell Lymphoma']
 RETURN
-  f.file_name AS `File Name`,
-    f.file_format AS `Format`,
-  f.file_type AS `File Type`,
-  f.file_size AS `Size`,
-  head(labels(parent)) AS `Association`,
-  f.file_description AS `Description`,
-  samp.sample_id AS `Sample ID`,
-  c.case_id as `Case ID`,
-  i.canine_individual_id AS `Canine ID`,
-  CASE WHEN s.clinical_study_designation IS NULL 
-  THEN parent.clinical_study_designation 
-  ELSE s.clinical_study_designation END AS `Study Code`
-  </t>
+    count(distinct p) AS Programs,
+    count(distinct s) AS Studies,
+    count(distinct c) AS Cases,
+    count(distinct samp) AS Samples,
+    count(distinct f) AS `Case Files`,
+    count(distinct sf) AS `Study Files`</t>
+  </si>
+  <si>
+    <t>MATCH (f:file)--&gt;(s:study)
+MATCH (sf:file)--&gt;(s)
+MATCH (s)&lt;--(c:case)
+MATCH (samp:sample)--&gt;(c)
+WHERE samp.specific_sample_pathology IN  ['T Cell Lymphoma']
+WITH DISTINCT f,  s, c
+WITH
+        f, c,  s,
+        ['Bytes', 'KB', 'MB', 'GB', 'TB'] AS units,
+        toInteger(floor(log(f.file_size)/log(1024))) as i,
+        2 as precision
+WITH
+        f, c,  s,
+        f.file_size /(1024^i) AS value, 10^precision AS factor,
+        units[i] as unit
+        WITH
+        f,  c,   s, unit,
+        round(factor * value)/factor AS size
+RETURN DISTINCT
+  coalesce(f.file_name, '') AS `File Name`,
+  coalesce(f.file_type, '') AS `File Type`,
+  coalesce("study", '') AS `Association`,
+  coalesce(f.file_description, '') AS `Description`,
+  coalesce(f.file_format, '') AS  Format,
+  CASE size % 1 WHEN 0 THEN apoc.convert.toInteger(size)+' ' +unit ELSE size+' ' +unit END AS Size,
+  coalesce(s.clinical_study_designation,'') AS `Study Code`</t>
   </si>
 </sst>
 </file>
@@ -581,8 +583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C538400-E87C-4027-A918-A51DB80B3430}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -619,13 +621,13 @@
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -639,13 +641,13 @@
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -659,13 +661,13 @@
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
@@ -676,16 +678,16 @@
     </row>
     <row r="5" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>

--- a/InputFiles/TC02_Canine_MFST_SamplePatho-TCellLymphoma.xlsx
+++ b/InputFiles/TC02_Canine_MFST_SamplePatho-TCellLymphoma.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\radhakrishnang2\Desktop\April\Commons_Automation\InputFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\radhakrishnang2\Desktop\May\Commons_Automation\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B63CC8B-6375-41FB-8BAA-2C2F8A9EAD97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE71174-5FA3-4DD3-BFBC-83B6EAD3D1CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
   <sheets>
     <sheet name="startup" sheetId="1" r:id="rId1"/>
@@ -89,35 +89,6 @@
        coalesce(diag.best_response, '') AS `Response to Treatment`,
        coalesce(co.cohort_description, '') AS `Cohort`
 Order by c.case_id LIMIT 100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MATCH (s:study)&lt;-[*]-(c:case)&lt;--(demo:demographic)
-MATCH (c)&lt;--(diag:diagnosis)
- MATCH (samp:sample)--&gt;(c)
- WHERE samp.specific_sample_pathology IN  ['T Cell Lymphoma']
-MATCH (f:file)-[*]-&gt;(c)
-WITH COLLECT(DISTINCT f.uuid) AS uuids
-MATCH (f:file)
-  WHERE f.uuid in uuids
-OPTIONAL MATCH (f)--&gt;(parent)
-OPTIONAL MATCH (f)-[*]-&gt;(samp:sample)
-OPTIONAL MATCH (f:file)-[*]-&gt;(c:case)
-OPTIONAL MATCH (s:study)&lt;-[:member_of]-(c)
-OPTIONAL MATCH (c)--&gt;(i:canine_individual)&lt;--(o:case)
-RETURN
-     coalesce(f.file_name, '') AS `File Name`,
-    coalesce(f.file_format, '') AS `Format`,
-  coalesce(f.file_type, '')AS `File Type`,
-  coalesce(f.file_size, '') AS `Size`,
-  head(labels(parent)) AS `Association`,
- coalesce(f.file_description,'') AS `Description`,
-coalesce(samp.sample_id, '') AS `Sample ID`,
-  coalesce(c.case_id,'') as `Case ID`,
-  coalesce(i.canine_individual_id,'') AS `Canine ID`,
-  CASE WHEN s.clinical_study_designation IS NULL 
-  THEN parent.clinical_study_designation 
-  ELSE s.clinical_study_designation END AS `Study Code`
-  </t>
   </si>
   <si>
     <t xml:space="preserve"> 
@@ -212,6 +183,53 @@
   coalesce(f.file_format, '') AS  Format,
   CASE size % 1 WHEN 0 THEN apoc.convert.toInteger(size)+' ' +unit ELSE size+' ' +unit END AS Size,
   coalesce(s.clinical_study_designation,'') AS `Study Code`</t>
+  </si>
+  <si>
+    <t>MATCH (samp:sample)
+        WHERE
+          samp.specific_sample_pathology IN  ['T Cell Lymphoma']
+        MATCH (samp)--&gt;(c:case)
+        MATCH (f:file)-[*]-&gt;(c)
+        WITH f
+        OPTIONAL MATCH (f)--&gt;(samp:sample)
+        OPTIONAL MATCH (samp)--&gt;(c:case)
+        OPTIONAL MATCH (f)-[*]-&gt;(s:study)
+        OPTIONAL MATCH (c)--&gt;(cv:canine_individual)
+        OPTIONAL MATCH (f)--&gt;(parent)
+        WITH
+          DISTINCT f, samp, c, s, cv, parent,
+          ['Bytes', 'KB', 'MB', 'GB', 'TB'] AS units,
+          toInteger(floor(log(f.file_size)/log(1024))) as i,
+          2 as precision
+        WITH
+          samp, c, s, f, cv, parent,
+          f.file_size /(1024^i) AS value,
+          10^precision AS factor,
+          units[i] as unit
+        WITH
+          samp, c, s, f, cv, parent, unit,
+          round(factor * value)/factor AS size
+        RETURN
+          coalesce(f.file_name, '') AS `File Name`,
+          coalesce(f.file_format, '') AS `Format`,
+          coalesce(f.file_type, '') AS `File Type`,
+          CASE size % 1
+              WHEN 0
+              THEN apoc.convert.toInteger(size)+' ' +unit
+              ELSE size+' ' +unit
+          END AS Size,
+          head(labels(parent)) AS `Association`,
+          coalesce(f.file_description,'') AS `Description`,
+          coalesce(samp.sample_id, '') AS `Sample ID`,
+          coalesce(c.case_id,'') as `Case ID`,
+          coalesce(cv.canine_individual_id,'') AS `Canine ID`,
+          CASE
+              WHEN s.clinical_study_designation IS NULL
+              THEN parent.clinical_study_designation
+              ELSE s.clinical_study_designation
+          END AS `Study Code`
+        ORDER BY `File Name`
+        LIMIT 100</t>
   </si>
 </sst>
 </file>
@@ -584,19 +602,19 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="92.42578125" customWidth="1"/>
-    <col min="3" max="4" width="75.7109375" customWidth="1"/>
-    <col min="5" max="5" width="70.28515625" customWidth="1"/>
-    <col min="6" max="6" width="28.5703125" customWidth="1"/>
+    <col min="1" max="1" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="92.453125" customWidth="1"/>
+    <col min="3" max="4" width="75.7265625" customWidth="1"/>
+    <col min="5" max="5" width="70.26953125" customWidth="1"/>
+    <col min="6" max="6" width="28.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -616,7 +634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -624,10 +642,10 @@
         <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -636,18 +654,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -656,18 +674,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
@@ -676,18 +694,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>

--- a/InputFiles/TC02_Canine_MFST_SamplePatho-TCellLymphoma.xlsx
+++ b/InputFiles/TC02_Canine_MFST_SamplePatho-TCellLymphoma.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\radhakrishnang2\Desktop\May\Commons_Automation\InputFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\radhakrishnang2\Desktop\June\Commons_Automation\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE71174-5FA3-4DD3-BFBC-83B6EAD3D1CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{070024B4-A2FB-40BA-BFED-16D4B3B39237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
   <sheets>
     <sheet name="startup" sheetId="1" r:id="rId1"/>
@@ -186,50 +186,45 @@
   </si>
   <si>
     <t>MATCH (samp:sample)
-        WHERE
-          samp.specific_sample_pathology IN  ['T Cell Lymphoma']
-        MATCH (samp)--&gt;(c:case)
-        MATCH (f:file)-[*]-&gt;(c)
-        WITH f
-        OPTIONAL MATCH (f)--&gt;(samp:sample)
-        OPTIONAL MATCH (samp)--&gt;(c:case)
-        OPTIONAL MATCH (f)-[*]-&gt;(s:study)
-        OPTIONAL MATCH (c)--&gt;(cv:canine_individual)
-        OPTIONAL MATCH (f)--&gt;(parent)
-        WITH
-          DISTINCT f, samp, c, s, cv, parent,
-          ['Bytes', 'KB', 'MB', 'GB', 'TB'] AS units,
-          toInteger(floor(log(f.file_size)/log(1024))) as i,
-          2 as precision
-        WITH
-          samp, c, s, f, cv, parent,
-          f.file_size /(1024^i) AS value,
-          10^precision AS factor,
-          units[i] as unit
-        WITH
-          samp, c, s, f, cv, parent, unit,
-          round(factor * value)/factor AS size
-        RETURN
-          coalesce(f.file_name, '') AS `File Name`,
-          coalesce(f.file_format, '') AS `Format`,
-          coalesce(f.file_type, '') AS `File Type`,
-          CASE size % 1
-              WHEN 0
-              THEN apoc.convert.toInteger(size)+' ' +unit
-              ELSE size+' ' +unit
-          END AS Size,
-          head(labels(parent)) AS `Association`,
-          coalesce(f.file_description,'') AS `Description`,
-          coalesce(samp.sample_id, '') AS `Sample ID`,
-          coalesce(c.case_id,'') as `Case ID`,
-          coalesce(cv.canine_individual_id,'') AS `Canine ID`,
-          CASE
-              WHEN s.clinical_study_designation IS NULL
-              THEN parent.clinical_study_designation
-              ELSE s.clinical_study_designation
-          END AS `Study Code`
-        ORDER BY `File Name`
-        LIMIT 100</t>
+WHERE samp.specific_sample_pathology IN ['T Cell Lymphoma']
+MATCH (samp)--&gt;(c:case)--&gt;(s:study)
+MATCH (f:file)-[*]-&gt;(c)
+OPTIONAL MATCH (f)--&gt;(parent)
+OPTIONAL MATCH (c)--&gt;(cv:canine_individual)
+WITH
+	DISTINCT f, samp, c, s, parent, cv,
+  	['Bytes', 'KB', 'MB', 'GB', 'TB'] AS units,
+	toInteger(floor(log(f.file_size)/log(1024))) as i,
+	2 as precision
+ WITH
+  	samp, c, s, f, parent, cv,
+    f.file_size /(1024^i) AS value,
+    10^precision AS factor,
+    units[i] as unit
+WITH
+    samp, c, s, f, unit, parent, cv,
+    round(factor * value)/factor AS size
+RETURN
+	coalesce(f.file_name, '') AS `File Name`,
+	coalesce(f.file_format, '') AS `Format`,
+	coalesce(f.file_type, '') AS `File Type`,
+	CASE size % 1
+	  WHEN 0
+	  THEN apoc.convert.toInteger(size)+' ' +unit
+	  ELSE size+' ' +unit
+	END AS Size,
+	head(labels(parent)) AS `Association`,
+	coalesce(f.file_description,'') AS `Description`,
+	coalesce(samp.sample_id, '') AS `Sample ID`,
+	coalesce(c.case_id,'') as `Case ID`,
+	coalesce(cv.canine_individual_id,'') AS `Canine ID`,
+	CASE
+	  WHEN s.clinical_study_designation IS NULL
+	  THEN parent.clinical_study_designation
+	  ELSE s.clinical_study_designation
+	END AS `Study Code`
+ORDER BY `File Name`
+LIMIT 100</t>
   </si>
 </sst>
 </file>
@@ -601,20 +596,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C538400-E87C-4027-A918-A51DB80B3430}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="92.453125" customWidth="1"/>
-    <col min="3" max="4" width="75.7265625" customWidth="1"/>
-    <col min="5" max="5" width="70.26953125" customWidth="1"/>
-    <col min="6" max="6" width="28.54296875" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="92.42578125" customWidth="1"/>
+    <col min="3" max="4" width="75.7109375" customWidth="1"/>
+    <col min="5" max="5" width="70.28515625" customWidth="1"/>
+    <col min="6" max="6" width="28.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -634,7 +629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -654,7 +649,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -674,7 +669,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -694,7 +689,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>

--- a/InputFiles/TC02_Canine_MFST_SamplePatho-TCellLymphoma.xlsx
+++ b/InputFiles/TC02_Canine_MFST_SamplePatho-TCellLymphoma.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\radhakrishnang2\Desktop\June\Commons_Automation\InputFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\radhakrishnang2\Desktop\July\Commons_Automation\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{070024B4-A2FB-40BA-BFED-16D4B3B39237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED711376-AC78-4F99-BE45-AE1B443DCA75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
   <sheets>
     <sheet name="startup" sheetId="1" r:id="rId1"/>
@@ -67,28 +67,6 @@
   </si>
   <si>
     <t>StudyFilesTab</t>
-  </si>
-  <si>
-    <t>MATCH (s:study)&lt;-[*]-(c:case)&lt;--(demo:demographic)
-MATCH (c)&lt;--(diag:diagnosis) 
- MATCH (samp:sample)--&gt;(c)
- WHERE samp.specific_sample_pathology IN  ['T Cell Lymphoma']
-OPTIONAL MATCH (co:cohort)&lt;-[*]-(c)
-WITH DISTINCT c, s, demo, diag, co, demo.patient_age_at_enrollment AS age, demo.weight as weight
-RETURN  
-       coalesce(c.case_id, '') AS `Case ID`,
-       coalesce(s.clinical_study_designation, '') AS `Study Code`,
-       coalesce(s.clinical_study_type, '') AS  `Study Type`,
-       coalesce(demo.breed, '') AS Breed ,
-       coalesce(diag.disease_term, '') AS Diagnosis ,
-       coalesce(diag.stage_of_disease, '') AS `Stage of Disease`,
-       CASE age % 1 WHEN 0 THEN apoc.convert.toInteger(age) ELSE age END AS Age,
-       coalesce(demo.sex, '') AS Sex,
-       coalesce(demo.neutered_indicator, '') AS `Neutered Status`,
-       coalesce(CASE weight % 1 WHEN 0 THEN apoc.convert.toInteger(weight) ELSE weight END, '') AS `Weight (kg)`,
-       coalesce(diag.best_response, '') AS `Response to Treatment`,
-       coalesce(co.cohort_description, '') AS `Cohort`
-Order by c.case_id LIMIT 100</t>
   </si>
   <si>
     <t xml:space="preserve"> 
@@ -185,45 +163,70 @@
   coalesce(s.clinical_study_designation,'') AS `Study Code`</t>
   </si>
   <si>
-    <t>MATCH (samp:sample)
-WHERE samp.specific_sample_pathology IN ['T Cell Lymphoma']
-MATCH (samp)--&gt;(c:case)--&gt;(s:study)
+    <t>MATCH (s:study)&lt;-[*]-(c:case)&lt;--(demo:demographic)
+MATCH (c)&lt;--(diag:diagnosis) 
+ MATCH (samp:sample)--&gt;(c)
+ WHERE samp.specific_sample_pathology IN  ['T Cell Lymphoma']
+OPTIONAL MATCH (co:cohort)&lt;-[*]-(c)
+WITH DISTINCT c, s, demo, diag, co, demo.patient_age_at_enrollment AS age, demo.weight as weight
+RETURN  
+       coalesce(c.case_id, '') AS `Case ID`,
+       coalesce(s.clinical_study_designation, '') AS `Study Code`,
+       coalesce(s.clinical_study_type, '') AS  `Study Type`,
+       coalesce(demo.breed, '') AS Breed ,
+       coalesce(diag.disease_term, '') AS Diagnosis ,
+       coalesce(diag.stage_of_disease, '') AS `Stage Of Disease`,
+       CASE age % 1 WHEN 0 THEN apoc.convert.toInteger(age) ELSE age END AS Age,
+       coalesce(demo.sex, '') AS Sex,
+       coalesce(demo.neutered_indicator, '') AS `Neutered Status`,
+       coalesce(CASE weight % 1 WHEN 0 THEN apoc.convert.toInteger(weight) ELSE weight END, '') AS `Weight (kg)`,
+       coalesce(diag.best_response, '') AS `Response to Treatment`,
+       coalesce(co.cohort_description, '') AS `Cohort`
+Order by c.case_id LIMIT 100</t>
+  </si>
+  <si>
+    <t>MATCH (samp:sample)--&gt;(c:case)
+WHERE 
+  samp.specific_sample_pathology IN  ['T Cell Lymphoma']
+WITH c
 MATCH (f:file)-[*]-&gt;(c)
+OPTIONAL MATCH (f)--&gt;(samp:sample)
 OPTIONAL MATCH (f)--&gt;(parent)
+OPTIONAL MATCH (c)--&gt;(s:study)
 OPTIONAL MATCH (c)--&gt;(cv:canine_individual)
+WITH 
+  DISTINCT f, samp, c, s, cv, parent,
+  ['Bytes', 'KB', 'MB', 'GB', 'TB'] AS units,
+  toInteger(floor(log(f.file_size)/log(1024))) as i,
+  2 as precision
+WITH 
+  samp, c, s, f, cv, parent,
+  f.file_size /(1024^i) AS value,
+  10^precision AS factor,
+  units[i] as unit
 WITH
-	DISTINCT f, samp, c, s, parent, cv,
-  	['Bytes', 'KB', 'MB', 'GB', 'TB'] AS units,
-	toInteger(floor(log(f.file_size)/log(1024))) as i,
-	2 as precision
- WITH
-  	samp, c, s, f, parent, cv,
-    f.file_size /(1024^i) AS value,
-    10^precision AS factor,
-    units[i] as unit
-WITH
-    samp, c, s, f, unit, parent, cv,
-    round(factor * value)/factor AS size
+  samp, c, s, f, cv, parent, unit,
+  round(factor * value)/factor AS size
 RETURN
-	coalesce(f.file_name, '') AS `File Name`,
-	coalesce(f.file_format, '') AS `Format`,
-	coalesce(f.file_type, '') AS `File Type`,
-	CASE size % 1
-	  WHEN 0
-	  THEN apoc.convert.toInteger(size)+' ' +unit
-	  ELSE size+' ' +unit
-	END AS Size,
-	head(labels(parent)) AS `Association`,
-	coalesce(f.file_description,'') AS `Description`,
-	coalesce(samp.sample_id, '') AS `Sample ID`,
-	coalesce(c.case_id,'') as `Case ID`,
-	coalesce(cv.canine_individual_id,'') AS `Canine ID`,
-	CASE
-	  WHEN s.clinical_study_designation IS NULL
-	  THEN parent.clinical_study_designation
-	  ELSE s.clinical_study_designation
-	END AS `Study Code`
-ORDER BY `File Name`
+  coalesce(f.file_name, '') AS `File Name`,
+  coalesce(f.file_format, '') AS `Format`,
+  coalesce(f.file_type, '') AS `File Type`,
+  CASE size % 1 
+      WHEN 0 
+      THEN apoc.convert.toInteger(size)+' ' +unit 
+      ELSE size+' ' +unit 
+  END AS Size,
+  head(labels(parent)) AS `Association`,
+  coalesce(f.file_description,'') AS `Description`,
+  coalesce(samp.sample_id, '') AS `Sample ID`,
+  coalesce(c.case_id,'') as `Case ID`,
+  coalesce(cv.canine_individual_id,'') AS `Canine ID`,
+  CASE 
+      WHEN s.clinical_study_designation IS NULL
+      THEN parent.clinical_study_designation
+      ELSE s.clinical_study_designation 
+  END AS `Study Code`
+ORDER BY `File Name` 
 LIMIT 100</t>
   </si>
 </sst>
@@ -596,20 +599,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C538400-E87C-4027-A918-A51DB80B3430}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="92.42578125" customWidth="1"/>
-    <col min="3" max="4" width="75.7109375" customWidth="1"/>
-    <col min="5" max="5" width="70.28515625" customWidth="1"/>
-    <col min="6" max="6" width="28.5703125" customWidth="1"/>
+    <col min="1" max="1" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="92.453125" customWidth="1"/>
+    <col min="3" max="4" width="75.7265625" customWidth="1"/>
+    <col min="5" max="5" width="70.26953125" customWidth="1"/>
+    <col min="6" max="6" width="28.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -629,15 +632,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>17</v>
@@ -649,15 +652,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>17</v>
@@ -669,15 +672,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>17</v>
@@ -689,15 +692,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>17</v>
